--- a/upload_files/petri_nets_results.xlsx
+++ b/upload_files/petri_nets_results.xlsx
@@ -390,14 +390,115 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>йцукенг</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/upload_files/petri_nets_results.xlsx
+++ b/upload_files/petri_nets_results.xlsx
@@ -390,115 +390,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>йцукенг</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/upload_files/petri_nets_results.xlsx
+++ b/upload_files/petri_nets_results.xlsx
@@ -390,14 +390,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>пп</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/upload_files/petri_nets_results.xlsx
+++ b/upload_files/petri_nets_results.xlsx
@@ -401,7 +401,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>пп</t>
+          <t>апро</t>
         </is>
       </c>
       <c r="B1" t="n">
